--- a/biology/Zoologie/Golvanacanthinae/Golvanacanthinae.xlsx
+++ b/biology/Zoologie/Golvanacanthinae/Golvanacanthinae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Golvanacanthinae sont une sous-famille d'acanthocéphales[1]. Ces espèces sont des parasites de vertébrés qui se caractérisent par un proboscis rétractable portant des épines courbées en arrière qui leur permet de s'accrocher à la paroi intestinale de leurs hôtes.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Golvanacanthinae sont une sous-famille d'acanthocéphales. Ces espèces sont des parasites de vertébrés qui se caractérisent par un proboscis rétractable portant des épines courbées en arrière qui leur permet de s'accrocher à la paroi intestinale de leurs hôtes.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La sous-famille des Golvanacanthinae a été créée en 1972 par Lia Paggi (d) &amp; Paola Orecchia (d).
-Le WoRMS considère cette famille comme invalide et lui préfère le taxon Isthmosacanthidae Smales (d), 2012[2].
+Le WoRMS considère cette famille comme invalide et lui préfère le taxon Isthmosacanthidae Smales (d), 2012.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste du genre et des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>La sous-famille des Golvanacanthinae ne comprend qu'un seul genre, composé des espèces suivantes :
 Golvanacanthus Paggi &amp; Orecchia, 1972
@@ -576,7 +592,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La nom de la sous-famille des Golvanacanthinae a été donné en l'honneur du parasitologue français Yves-Jean Golvan (d) (1928-2008).
 </t>
